--- a/vedois/alunos (importar)/CCO_3.xlsx
+++ b/vedois/alunos (importar)/CCO_3.xlsx
@@ -431,7 +431,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CCO 2022 3</t>
+          <t>CCO 3</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -499,7 +499,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Segunda T 13:30 - 14:25</t>
+          <t>Terça M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -511,7 +511,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Segunda T 14:25 - 15:20</t>
+          <t>Terça M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -523,7 +523,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Segunda T 15:45 - 16:40</t>
+          <t>Terça M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -535,7 +535,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Segunda T 16:40 - 17:35</t>
+          <t>Terça M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -547,7 +547,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Segunda N 19:00 - 19:50</t>
+          <t>Quarta M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -559,7 +559,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Segunda N 19:50 - 20:40</t>
+          <t>Quarta M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Segunda N 21:00 - 21:50</t>
+          <t>Quarta M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -583,7 +583,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Segunda N 21:50 - 22:40</t>
+          <t>Quarta M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -595,7 +595,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Terça M 07:00 - 07:55</t>
+          <t>Quinta M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -607,7 +607,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Terça M 07:55 - 08:50</t>
+          <t>Quinta M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -619,7 +619,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Terça M 08:50 - 09:45</t>
+          <t>Quinta M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Terça M 10:10 - 11:00</t>
+          <t>Quinta M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -643,7 +643,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Terça T 13:30 - 14:25</t>
+          <t>Sexta M 07:00 - 07:55</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -655,7 +655,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Terça T 14:25 - 15:20</t>
+          <t>Sexta M 07:55 - 08:50</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -667,7 +667,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Terça T 15:45 - 16:40</t>
+          <t>Sexta M 08:50 - 09:45</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Terça T 16:40 - 17:35</t>
+          <t>Sexta M 10:10 - 11:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Terça N 19:00 - 19:50</t>
+          <t>Segunda T 13:30 - 14:25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -703,7 +703,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Terça N 19:50 - 20:40</t>
+          <t>Segunda T 14:25 - 15:20</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -715,7 +715,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Terça N 21:00 - 21:50</t>
+          <t>Segunda T 15:45 - 16:40</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -727,7 +727,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Terça N 21:50 - 22:40</t>
+          <t>Segunda T 16:40 - 17:35</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
